--- a/biology/Zoologie/Archips_xylosteana/Archips_xylosteana.xlsx
+++ b/biology/Zoologie/Archips_xylosteana/Archips_xylosteana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archips xylosteana est une espèce d'insectes de la l'ordre des lépidoptères (papillons), de la famille des Tortricidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon appartenant à un groupe de papillons appelés tordeuses, parce que leurs chenilles pour se protéger enroulent les feuilles autour d'elles.
 Il fait partie des centaines d'espèces dont les chenilles se nourrissent au chêne, en compagnie d'autres tordeuses, de pyrales ainsi que de géomètres (cheimatobies, hibernies, Agriopis).
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dessin des ailes peut apparaître de loin asymétrique, c'est parce qu'au repos, une aile recouvre l'autre et cache une partie du motif de cette dernière.
-La chenille est gris blanchâtre à bleutée, avec des reflets verdâtres[1].
+La chenille est gris blanchâtre à bleutée, avec des reflets verdâtres.
 Elle se développe à partir d’avril, dans une feuille enroulée perpendiculairement à la nervure principale.
 </t>
         </is>
